--- a/Assets/Levels/Rockets.xlsx
+++ b/Assets/Levels/Rockets.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF393ADB-189B-4912-BF7C-6ECDFD778701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118F0A9-4D66-4D15-BC43-53886A0B4370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{543AD0B1-5B18-4FA5-8003-7C9D3464DA33}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tiles" sheetId="1" r:id="rId1"/>
+    <sheet name="Rockets" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -396,16 +396,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF369A3-DCC3-4973-AC1E-EF925DA3C8EE}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -422,7 +420,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>+A1+62*3</f>
+        <f t="shared" ref="A2:A7" si="0">+A1+62*3</f>
         <v>186</v>
       </c>
       <c r="B2" s="1">
@@ -434,7 +432,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A55" si="0">+A2+62*3</f>
+        <f t="shared" si="0"/>
         <v>372</v>
       </c>
       <c r="B3" s="1">
@@ -494,8 +492,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>1302</v>
+        <v>1488</v>
       </c>
       <c r="B8" s="1">
         <v>128</v>
@@ -506,8 +503,8 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>1488</v>
+        <f>+A8+62*3</f>
+        <v>1674</v>
       </c>
       <c r="B9" s="1">
         <v>128</v>
@@ -518,8 +515,8 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>1674</v>
+        <f>+A9+62*3</f>
+        <v>1860</v>
       </c>
       <c r="B10" s="1">
         <v>128</v>
@@ -530,8 +527,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>2232</v>
       </c>
       <c r="B11" s="1">
         <v>128</v>
@@ -542,8 +538,8 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>2046</v>
+        <f>+A11+62*3</f>
+        <v>2418</v>
       </c>
       <c r="B12" s="1">
         <v>128</v>
@@ -554,8 +550,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>2232</v>
+        <v>2790</v>
       </c>
       <c r="B13" s="1">
         <v>128</v>
@@ -566,8 +561,8 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>2418</v>
+        <f>+A13+62*3</f>
+        <v>2976</v>
       </c>
       <c r="B14" s="1">
         <v>128</v>
@@ -578,8 +573,8 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>2604</v>
+        <f>+A14+62*3</f>
+        <v>3162</v>
       </c>
       <c r="B15" s="1">
         <v>128</v>
@@ -590,8 +585,8 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>2790</v>
+        <f>+A15+62*3</f>
+        <v>3348</v>
       </c>
       <c r="B16" s="1">
         <v>128</v>
@@ -602,8 +597,8 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>2976</v>
+        <f>+A16+62*3</f>
+        <v>3534</v>
       </c>
       <c r="B17" s="1">
         <v>128</v>
@@ -614,8 +609,8 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>3162</v>
+        <f>+A17+62*3</f>
+        <v>3720</v>
       </c>
       <c r="B18" s="1">
         <v>128</v>
@@ -626,8 +621,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>3348</v>
+        <v>4278</v>
       </c>
       <c r="B19" s="1">
         <v>128</v>
@@ -638,8 +632,8 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>3534</v>
+        <f>+A19+62*3</f>
+        <v>4464</v>
       </c>
       <c r="B20" s="1">
         <v>128</v>
@@ -650,8 +644,8 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>3720</v>
+        <f>+A20+62*3</f>
+        <v>4650</v>
       </c>
       <c r="B21" s="1">
         <v>128</v>
@@ -662,8 +656,8 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>3906</v>
+        <f>+A21+62*3</f>
+        <v>4836</v>
       </c>
       <c r="B22" s="1">
         <v>128</v>
@@ -674,8 +668,8 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>4092</v>
+        <f>+A22+62*3</f>
+        <v>5022</v>
       </c>
       <c r="B23" s="1">
         <v>128</v>
@@ -686,8 +680,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>4278</v>
+        <v>5394</v>
       </c>
       <c r="B24" s="1">
         <v>128</v>
@@ -698,8 +691,8 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>4464</v>
+        <f>+A24+62*3</f>
+        <v>5580</v>
       </c>
       <c r="B25" s="1">
         <v>128</v>
@@ -710,8 +703,8 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>4650</v>
+        <f>+A25+62*3</f>
+        <v>5766</v>
       </c>
       <c r="B26" s="1">
         <v>128</v>
@@ -722,8 +715,8 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>4836</v>
+        <f>+A26+62*3</f>
+        <v>5952</v>
       </c>
       <c r="B27" s="1">
         <v>128</v>
@@ -734,8 +727,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>5022</v>
+        <v>6324</v>
       </c>
       <c r="B28" s="1">
         <v>128</v>
@@ -746,8 +738,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>5208</v>
+        <v>6696</v>
       </c>
       <c r="B29" s="1">
         <v>128</v>
@@ -758,8 +749,8 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>5394</v>
+        <f>+A29+62*3</f>
+        <v>6882</v>
       </c>
       <c r="B30" s="1">
         <v>128</v>
@@ -770,8 +761,8 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>5580</v>
+        <f>+A30+62*3</f>
+        <v>7068</v>
       </c>
       <c r="B31" s="1">
         <v>128</v>
@@ -782,8 +773,8 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>5766</v>
+        <f>+A31+62*3</f>
+        <v>7254</v>
       </c>
       <c r="B32" s="1">
         <v>128</v>
@@ -794,8 +785,8 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>5952</v>
+        <f>+A32+62*3</f>
+        <v>7440</v>
       </c>
       <c r="B33" s="1">
         <v>128</v>
@@ -806,8 +797,8 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>6138</v>
+        <f>+A33+62*3</f>
+        <v>7626</v>
       </c>
       <c r="B34" s="1">
         <v>128</v>
@@ -818,8 +809,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>6324</v>
+        <v>7988</v>
       </c>
       <c r="B35" s="1">
         <v>128</v>
@@ -830,8 +820,8 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>6510</v>
+        <f>+A35+62*3</f>
+        <v>8174</v>
       </c>
       <c r="B36" s="1">
         <v>128</v>
@@ -841,232 +831,84 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>6696</v>
-      </c>
-      <c r="B37" s="1">
-        <v>128</v>
-      </c>
-      <c r="C37" s="1">
-        <v>200</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>6882</v>
-      </c>
-      <c r="B38" s="1">
-        <v>128</v>
-      </c>
-      <c r="C38" s="1">
-        <v>200</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>7068</v>
-      </c>
-      <c r="B39" s="1">
-        <v>128</v>
-      </c>
-      <c r="C39" s="1">
-        <v>200</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>7254</v>
-      </c>
-      <c r="B40" s="1">
-        <v>128</v>
-      </c>
-      <c r="C40" s="1">
-        <v>200</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>7440</v>
-      </c>
-      <c r="B41" s="1">
-        <v>128</v>
-      </c>
-      <c r="C41" s="1">
-        <v>200</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>7626</v>
-      </c>
-      <c r="B42" s="1">
-        <v>128</v>
-      </c>
-      <c r="C42" s="1">
-        <v>200</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>7812</v>
-      </c>
-      <c r="B43" s="1">
-        <v>128</v>
-      </c>
-      <c r="C43" s="1">
-        <v>200</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>7998</v>
-      </c>
-      <c r="B44" s="1">
-        <v>128</v>
-      </c>
-      <c r="C44" s="1">
-        <v>200</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>8184</v>
-      </c>
-      <c r="B45" s="1">
-        <v>128</v>
-      </c>
-      <c r="C45" s="1">
-        <v>200</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>8370</v>
-      </c>
-      <c r="B46" s="1">
-        <v>128</v>
-      </c>
-      <c r="C46" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>8556</v>
-      </c>
-      <c r="B47" s="1">
-        <v>128</v>
-      </c>
-      <c r="C47" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>8742</v>
-      </c>
-      <c r="B48" s="1">
-        <v>128</v>
-      </c>
-      <c r="C48" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>8928</v>
-      </c>
-      <c r="B49" s="1">
-        <v>128</v>
-      </c>
-      <c r="C49" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>9114</v>
-      </c>
-      <c r="B50" s="1">
-        <v>128</v>
-      </c>
-      <c r="C50" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>9300</v>
-      </c>
-      <c r="B51" s="1">
-        <v>128</v>
-      </c>
-      <c r="C51" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>9486</v>
-      </c>
-      <c r="B52" s="1">
-        <v>128</v>
-      </c>
-      <c r="C52" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>9672</v>
-      </c>
-      <c r="B53" s="1">
-        <v>128</v>
-      </c>
-      <c r="C53" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>9858</v>
-      </c>
-      <c r="B54" s="1">
-        <v>128</v>
-      </c>
-      <c r="C54" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>10044</v>
-      </c>
-      <c r="B55" s="1">
-        <v>128</v>
-      </c>
-      <c r="C55" s="1">
-        <v>200</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
